--- a/tests/test_expected/namespace_override/SHACL-testclass.xlsx
+++ b/tests/test_expected/namespace_override/SHACL-testclass.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,6 +493,40 @@
       <c r="C5" t="inlineStr">
         <is>
           <t>http://example.com/custom#</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>PREFIX</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>dash</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>http://datashapes.org/dash#</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>PREFIX</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>sh</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/ns/shacl#</t>
         </is>
       </c>
     </row>
@@ -661,7 +695,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2026-02-11 14:41:52</t>
+          <t>2026-02-12 10:20:26</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
